--- a/testing/ResortHub_TestCase.xlsx
+++ b/testing/ResortHub_TestCase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leif.le\Documents\Leif\Work Space\ResortHub_Servlet\testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6943ED2A-2D98-490C-AEED-4EAA86C5C640}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E0E7F2D-7F5B-4A71-881F-F7709D0F9828}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{923F7F89-0E2B-4835-A168-44C3E1B624BB}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="67">
   <si>
     <t>Case NO.</t>
   </si>
@@ -228,6 +228,15 @@
   </si>
   <si>
     <t>View booking details</t>
+  </si>
+  <si>
+    <t>Danh sách booking được hiển thị.</t>
+  </si>
+  <si>
+    <t>Recheck</t>
+  </si>
+  <si>
+    <t>Kiểm tra ngày đặt hợp lệ, role Admin dẫn tới trang Management</t>
   </si>
 </sst>
 </file>
@@ -371,7 +380,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -447,6 +456,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -775,8 +787,8 @@
   <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H9" sqref="H9"/>
+      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -787,7 +799,7 @@
     <col min="4" max="4" width="31.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="47.28515625" style="7" customWidth="1"/>
     <col min="6" max="6" width="9.140625" style="13"/>
-    <col min="7" max="7" width="23.42578125" customWidth="1"/>
+    <col min="7" max="7" width="18.42578125" customWidth="1"/>
     <col min="8" max="8" width="36" style="7" customWidth="1"/>
     <col min="9" max="9" width="13.28515625" style="18" customWidth="1"/>
     <col min="10" max="10" width="50" style="25" customWidth="1"/>
@@ -893,8 +905,8 @@
       <c r="H4" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="I4" s="19" t="s">
-        <v>55</v>
+      <c r="I4" s="29" t="s">
+        <v>65</v>
       </c>
       <c r="J4" s="6" t="s">
         <v>60</v>
@@ -915,7 +927,9 @@
       <c r="F5" s="11"/>
       <c r="G5" s="3"/>
       <c r="H5" s="6"/>
-      <c r="I5" s="4"/>
+      <c r="I5" s="29" t="s">
+        <v>65</v>
+      </c>
       <c r="J5" s="6" t="s">
         <v>59</v>
       </c>
@@ -935,7 +949,9 @@
       </c>
       <c r="G6" s="3"/>
       <c r="H6" s="6"/>
-      <c r="I6" s="4"/>
+      <c r="I6" s="29" t="s">
+        <v>65</v>
+      </c>
       <c r="J6" s="6"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -975,8 +991,8 @@
       <c r="F8" s="11"/>
       <c r="G8" s="3"/>
       <c r="H8" s="6"/>
-      <c r="I8" s="17" t="s">
-        <v>54</v>
+      <c r="I8" s="29" t="s">
+        <v>65</v>
       </c>
       <c r="J8" s="6" t="s">
         <v>59</v>
@@ -995,7 +1011,9 @@
       <c r="F9" s="11"/>
       <c r="G9" s="3"/>
       <c r="H9" s="6"/>
-      <c r="I9" s="4"/>
+      <c r="I9" s="29" t="s">
+        <v>65</v>
+      </c>
       <c r="J9" s="6"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -1033,7 +1051,9 @@
       <c r="F11" s="11"/>
       <c r="G11" s="3"/>
       <c r="H11" s="6"/>
-      <c r="I11" s="4"/>
+      <c r="I11" s="29" t="s">
+        <v>65</v>
+      </c>
       <c r="J11" s="6" t="s">
         <v>59</v>
       </c>
@@ -1100,7 +1120,9 @@
       </c>
       <c r="F14" s="11"/>
       <c r="G14" s="3"/>
-      <c r="H14" s="6"/>
+      <c r="H14" s="6" t="s">
+        <v>64</v>
+      </c>
       <c r="I14" s="17" t="s">
         <v>54</v>
       </c>
@@ -1183,7 +1205,9 @@
       <c r="H18" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="I18" s="4"/>
+      <c r="I18" s="29" t="s">
+        <v>65</v>
+      </c>
       <c r="J18" s="6"/>
     </row>
     <row r="19" spans="1:10" ht="165" x14ac:dyDescent="0.25">
@@ -1203,8 +1227,8 @@
       <c r="H19" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="I19" s="19" t="s">
-        <v>55</v>
+      <c r="I19" s="29" t="s">
+        <v>65</v>
       </c>
       <c r="J19" s="6"/>
     </row>
@@ -1250,7 +1274,7 @@
       </c>
       <c r="J21" s="6"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>21</v>
       </c>
@@ -1265,10 +1289,12 @@
       </c>
       <c r="G22" s="1"/>
       <c r="H22" s="9"/>
-      <c r="I22" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="J22" s="6"/>
+      <c r="I22" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="J22" s="6" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="23" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
@@ -1285,8 +1311,8 @@
       <c r="F23" s="12"/>
       <c r="G23" s="1"/>
       <c r="H23" s="9"/>
-      <c r="I23" s="17" t="s">
-        <v>54</v>
+      <c r="I23" s="29" t="s">
+        <v>65</v>
       </c>
       <c r="J23" s="6"/>
     </row>

--- a/testing/ResortHub_TestCase.xlsx
+++ b/testing/ResortHub_TestCase.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leif.le\Documents\Leif\Work Space\ResortHub_Servlet\testing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jpesewang/Leif's home/ResortHub/testing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E0E7F2D-7F5B-4A71-881F-F7709D0F9828}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{598DE561-9BD8-EC4D-8B6E-F9D436FC7D62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{923F7F89-0E2B-4835-A168-44C3E1B624BB}"/>
+    <workbookView xWindow="0" yWindow="700" windowWidth="27040" windowHeight="15840" xr2:uid="{923F7F89-0E2B-4835-A168-44C3E1B624BB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,6 @@
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="66">
   <si>
     <t>Case NO.</t>
   </si>
@@ -201,9 +200,6 @@
   </si>
   <si>
     <t>Pass</t>
-  </si>
-  <si>
-    <t>Fail</t>
   </si>
   <si>
     <t>Đối với các dịch vụ thuê Villa và House thì Customer cần phải làm hợp đồng thuê với Furama</t>
@@ -380,7 +376,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -428,9 +424,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -449,6 +442,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -456,9 +452,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -786,58 +779,58 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9AE4985-40CE-4C11-9BB9-D84A7474721F}">
   <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="20.5703125" customWidth="1"/>
-    <col min="3" max="3" width="23.85546875" customWidth="1"/>
-    <col min="4" max="4" width="31.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="47.28515625" style="7" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="13"/>
-    <col min="7" max="7" width="18.42578125" customWidth="1"/>
+    <col min="1" max="1" width="9.1640625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="20.5" customWidth="1"/>
+    <col min="3" max="3" width="23.83203125" customWidth="1"/>
+    <col min="4" max="4" width="31.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="47.33203125" style="7" customWidth="1"/>
+    <col min="6" max="6" width="9.1640625" style="13"/>
+    <col min="7" max="7" width="18.5" customWidth="1"/>
     <col min="8" max="8" width="36" style="7" customWidth="1"/>
-    <col min="9" max="9" width="13.28515625" style="18" customWidth="1"/>
-    <col min="10" max="10" width="50" style="25" customWidth="1"/>
+    <col min="9" max="9" width="13.33203125" style="18" customWidth="1"/>
+    <col min="10" max="10" width="50" style="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="5" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="F1" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="20" t="s">
+      <c r="G1" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="23" t="s">
+      <c r="H1" s="22" t="s">
         <v>6</v>
       </c>
       <c r="I1" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="24" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="J1" s="23" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -863,7 +856,7 @@
       </c>
       <c r="J2" s="6"/>
     </row>
-    <row r="3" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -885,7 +878,7 @@
       </c>
       <c r="J3" s="6"/>
     </row>
-    <row r="4" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="48" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -903,16 +896,16 @@
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="I4" s="29" t="s">
-        <v>65</v>
+        <v>60</v>
+      </c>
+      <c r="I4" s="17" t="s">
+        <v>54</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -927,14 +920,14 @@
       <c r="F5" s="11"/>
       <c r="G5" s="3"/>
       <c r="H5" s="6"/>
-      <c r="I5" s="29" t="s">
-        <v>65</v>
+      <c r="I5" s="17" t="s">
+        <v>54</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -949,12 +942,12 @@
       </c>
       <c r="G6" s="3"/>
       <c r="H6" s="6"/>
-      <c r="I6" s="29" t="s">
-        <v>65</v>
+      <c r="I6" s="17" t="s">
+        <v>54</v>
       </c>
       <c r="J6" s="6"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -978,7 +971,7 @@
       </c>
       <c r="J7" s="6"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -991,14 +984,14 @@
       <c r="F8" s="11"/>
       <c r="G8" s="3"/>
       <c r="H8" s="6"/>
-      <c r="I8" s="29" t="s">
-        <v>65</v>
+      <c r="I8" s="17" t="s">
+        <v>54</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -1011,12 +1004,12 @@
       <c r="F9" s="11"/>
       <c r="G9" s="3"/>
       <c r="H9" s="6"/>
-      <c r="I9" s="29" t="s">
-        <v>65</v>
+      <c r="I9" s="25" t="s">
+        <v>64</v>
       </c>
       <c r="J9" s="6"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -1038,7 +1031,7 @@
       </c>
       <c r="J10" s="6"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -1051,14 +1044,14 @@
       <c r="F11" s="11"/>
       <c r="G11" s="3"/>
       <c r="H11" s="6"/>
-      <c r="I11" s="29" t="s">
-        <v>65</v>
+      <c r="I11" s="17" t="s">
+        <v>54</v>
       </c>
       <c r="J11" s="6" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -1068,7 +1061,7 @@
         <v>25</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F12" s="10" t="s">
         <v>48</v>
@@ -1080,7 +1073,7 @@
       </c>
       <c r="J12" s="6"/>
     </row>
-    <row r="13" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="48" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -1099,14 +1092,14 @@
       </c>
       <c r="G13" s="3"/>
       <c r="H13" s="6"/>
-      <c r="I13" s="19" t="s">
-        <v>55</v>
+      <c r="I13" s="17" t="s">
+        <v>54</v>
       </c>
       <c r="J13" s="6" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="48" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>13</v>
       </c>
@@ -1121,14 +1114,14 @@
       <c r="F14" s="11"/>
       <c r="G14" s="3"/>
       <c r="H14" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I14" s="17" t="s">
         <v>54</v>
       </c>
       <c r="J14" s="6"/>
     </row>
-    <row r="15" spans="1:10" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>14</v>
       </c>
@@ -1143,12 +1136,12 @@
       <c r="F15" s="11"/>
       <c r="G15" s="3"/>
       <c r="H15" s="6"/>
-      <c r="I15" s="19" t="s">
-        <v>55</v>
+      <c r="I15" s="17" t="s">
+        <v>54</v>
       </c>
       <c r="J15" s="6"/>
     </row>
-    <row r="16" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>15</v>
       </c>
@@ -1163,12 +1156,12 @@
       <c r="H16" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="I16" s="19" t="s">
-        <v>55</v>
+      <c r="I16" s="17" t="s">
+        <v>54</v>
       </c>
       <c r="J16" s="6"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>16</v>
       </c>
@@ -1181,12 +1174,12 @@
       <c r="F17" s="11"/>
       <c r="G17" s="3"/>
       <c r="H17" s="6"/>
-      <c r="I17" s="19" t="s">
-        <v>55</v>
+      <c r="I17" s="17" t="s">
+        <v>54</v>
       </c>
       <c r="J17" s="6"/>
     </row>
-    <row r="18" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" ht="48" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>17</v>
       </c>
@@ -1198,19 +1191,19 @@
         <v>34</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F18" s="11"/>
       <c r="G18" s="3"/>
       <c r="H18" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="I18" s="29" t="s">
-        <v>65</v>
+      <c r="I18" s="17" t="s">
+        <v>54</v>
       </c>
       <c r="J18" s="6"/>
     </row>
-    <row r="19" spans="1:10" ht="165" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" ht="144" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
         <v>18</v>
       </c>
@@ -1227,12 +1220,12 @@
       <c r="H19" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="I19" s="29" t="s">
-        <v>65</v>
+      <c r="I19" s="17" t="s">
+        <v>54</v>
       </c>
       <c r="J19" s="6"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
         <v>19</v>
       </c>
@@ -1253,10 +1246,10 @@
         <v>54</v>
       </c>
       <c r="J20" s="6" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
         <v>20</v>
       </c>
@@ -1274,7 +1267,7 @@
       </c>
       <c r="J21" s="6"/>
     </row>
-    <row r="22" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
         <v>21</v>
       </c>
@@ -1289,14 +1282,14 @@
       </c>
       <c r="G22" s="1"/>
       <c r="H22" s="9"/>
-      <c r="I22" s="29" t="s">
+      <c r="I22" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="J22" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="J22" s="6" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
         <v>22</v>
       </c>
@@ -1306,17 +1299,17 @@
         <v>28</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F23" s="12"/>
       <c r="G23" s="1"/>
       <c r="H23" s="9"/>
-      <c r="I23" s="29" t="s">
-        <v>65</v>
+      <c r="I23" s="25" t="s">
+        <v>64</v>
       </c>
       <c r="J23" s="6"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
         <v>23</v>
       </c>
@@ -1338,14 +1331,14 @@
       </c>
       <c r="J24" s="6"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>24</v>
       </c>
       <c r="B25" s="28"/>
       <c r="C25" s="28"/>
       <c r="D25" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E25" s="9"/>
       <c r="F25" s="14" t="s">
@@ -1353,8 +1346,8 @@
       </c>
       <c r="G25" s="1"/>
       <c r="H25" s="9"/>
-      <c r="I25" s="19" t="s">
-        <v>55</v>
+      <c r="I25" s="17" t="s">
+        <v>54</v>
       </c>
       <c r="J25" s="6"/>
     </row>
